--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>so_cmt</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>sdsdsdajdjahd</t>
+  </si>
+  <si>
+    <t>Trần Rạo Rực</t>
+  </si>
+  <si>
+    <t>0983906109</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -116,6 +122,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +444,7 @@
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="9" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
@@ -449,7 +462,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -472,8 +485,8 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
-        <v>983906109</v>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="4">
         <v>40634</v>
@@ -495,8 +508,8 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2">
-        <v>983906109</v>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="4">
         <v>40634</v>
@@ -518,8 +531,8 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
-        <v>983906109</v>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="4">
         <v>40634</v>
@@ -541,8 +554,8 @@
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2">
-        <v>983906109</v>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="4">
         <v>40634</v>
@@ -564,13 +577,36 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
-        <v>983906109</v>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="4">
         <v>40634</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>555555555</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1998</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4">
+        <v>40634</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t>so_cmt</t>
   </si>
@@ -37,38 +37,305 @@
     <t>noi_cap_cmt</t>
   </si>
   <si>
-    <t>Nguyễn Như Huy</t>
-  </si>
-  <si>
-    <t>Phố Mía, phường Ninh Khánh, TP Ninh Bình</t>
-  </si>
-  <si>
-    <t>TP Ninh Bình</t>
-  </si>
-  <si>
-    <t>Nguyễn Huy Hoàng</t>
-  </si>
-  <si>
-    <t>Nguyễn abcyxz</t>
-  </si>
-  <si>
-    <t>sdsdsdajdjahd</t>
-  </si>
-  <si>
-    <t>Trần Rạo Rực</t>
-  </si>
-  <si>
-    <t>0983906109</t>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>Hải Dương</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>Phạm Văn Dũng</t>
+  </si>
+  <si>
+    <t>2B/299/15 Hoàng Mai  - Hà Nội</t>
+  </si>
+  <si>
+    <t>0977 972 362</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nhung</t>
+  </si>
+  <si>
+    <t>121 Kim Ngưu –Hai Bà Trưng</t>
+  </si>
+  <si>
+    <t>0969 264 651</t>
+  </si>
+  <si>
+    <t>Bắc Giang</t>
+  </si>
+  <si>
+    <t>Dương Thị Thanh Nhật</t>
+  </si>
+  <si>
+    <t>10/138 Đường Giáp Bát</t>
+  </si>
+  <si>
+    <t>01649 611 932</t>
+  </si>
+  <si>
+    <t>Phạm Thị Hường</t>
+  </si>
+  <si>
+    <t>Số 1 Trần Quý Cáp – Đống Đa</t>
+  </si>
+  <si>
+    <t>01635 983 395</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Cúc</t>
+  </si>
+  <si>
+    <t>Số 75/66 Hồ Tùng Mậu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0979 297 157 </t>
+  </si>
+  <si>
+    <t>Phạm Thị Hoa Mai</t>
+  </si>
+  <si>
+    <t>0947 759 645</t>
+  </si>
+  <si>
+    <t>Trần Thị Vuông</t>
+  </si>
+  <si>
+    <t>139 Tam Trinh – Hai Bà Trưng</t>
+  </si>
+  <si>
+    <t>0984 373 091</t>
+  </si>
+  <si>
+    <t>Kiều Việt Sơn</t>
+  </si>
+  <si>
+    <t>KTX ĐH Dược – Hà Nội</t>
+  </si>
+  <si>
+    <t>01629 410 068</t>
+  </si>
+  <si>
+    <t>Ngô Thị Nhung</t>
+  </si>
+  <si>
+    <t>139 Tam Trinh – Hoàng Mai</t>
+  </si>
+  <si>
+    <t>0965 312 982</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Nguyên</t>
+  </si>
+  <si>
+    <t>01659 012 087</t>
+  </si>
+  <si>
+    <t>Hà Hồng Hương</t>
+  </si>
+  <si>
+    <t>Bùi Xương Trạch – Thanh Xuân</t>
+  </si>
+  <si>
+    <t>0968 266 389</t>
+  </si>
+  <si>
+    <t>Hà Tây</t>
+  </si>
+  <si>
+    <t>Bùi Thị Giang</t>
+  </si>
+  <si>
+    <t>0983 956 808</t>
+  </si>
+  <si>
+    <t>Phạm Hương Giang</t>
+  </si>
+  <si>
+    <t>71/274 Lê Duẩn – Đống Đa</t>
+  </si>
+  <si>
+    <t>0962 771 340</t>
+  </si>
+  <si>
+    <t>Dương Mạnh Khu</t>
+  </si>
+  <si>
+    <t>1A Thọ Lão – Lò Đúc</t>
+  </si>
+  <si>
+    <t>0987 560 591</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Thái</t>
+  </si>
+  <si>
+    <t>ĐH Xây Dựng – Hà Nội</t>
+  </si>
+  <si>
+    <t>01649 582 289</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Tấn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/22 Tôn Thất Tùng </t>
+  </si>
+  <si>
+    <t>0912 982 625</t>
+  </si>
+  <si>
+    <t>Phạm Thị Huệ</t>
+  </si>
+  <si>
+    <t>11/260/25 Cầu Giấy</t>
+  </si>
+  <si>
+    <t>0984 334 196</t>
+  </si>
+  <si>
+    <t>Phạm Minh Đức</t>
+  </si>
+  <si>
+    <t>Vạn Phúc – Thanh Trì</t>
+  </si>
+  <si>
+    <t>0914 530 610</t>
+  </si>
+  <si>
+    <t>Hà Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Ngõ 1 Bùi Xương Trạch</t>
+  </si>
+  <si>
+    <t>0966 452 994</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Đạt</t>
+  </si>
+  <si>
+    <t>Ngõ 75 Nguyễn An Ninh</t>
+  </si>
+  <si>
+    <t>0968 682 194</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Phạm Thị Loan</t>
+  </si>
+  <si>
+    <t>Số 7/9/184 Trần Khát Chân</t>
+  </si>
+  <si>
+    <t>01682 456 291</t>
+  </si>
+  <si>
+    <t>Phạm Thị Hằng</t>
+  </si>
+  <si>
+    <t>Dốc Thọ Lão – Lò Đúc</t>
+  </si>
+  <si>
+    <t>01665 049 488</t>
+  </si>
+  <si>
+    <t>Trần Văn Đoái</t>
+  </si>
+  <si>
+    <t>Tứ Kỳ - Hoàng Mai</t>
+  </si>
+  <si>
+    <t>0902 144 116</t>
+  </si>
+  <si>
+    <t>Vũ Thị Hiên</t>
+  </si>
+  <si>
+    <t>Định Công – Hoàng Mai</t>
+  </si>
+  <si>
+    <t>01684 571 949</t>
+  </si>
+  <si>
+    <t>Đoàn Xuân Bách</t>
+  </si>
+  <si>
+    <t>72/34 Vĩnh Tuy – Hà Nội</t>
+  </si>
+  <si>
+    <t>01638 736 789</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tân</t>
+  </si>
+  <si>
+    <t>8/162/32 Khương Trung</t>
+  </si>
+  <si>
+    <t>01644 899 966</t>
+  </si>
+  <si>
+    <t>Hà Nam</t>
+  </si>
+  <si>
+    <t>Đoàn Văn Nam</t>
+  </si>
+  <si>
+    <t>44/158 Trương Định</t>
+  </si>
+  <si>
+    <t>0919 751 031</t>
+  </si>
+  <si>
+    <t>Lại Đức Phú</t>
+  </si>
+  <si>
+    <t>Từ Liêm – Hà Nội</t>
+  </si>
+  <si>
+    <t>01643 805 473</t>
+  </si>
+  <si>
+    <t>Vũ Đình Khánh</t>
+  </si>
+  <si>
+    <t>15/475 Nguyễn Trãi – Thanh Xuân</t>
+  </si>
+  <si>
+    <t>0975 610 425</t>
+  </si>
+  <si>
+    <t>Hà Quang Tuyến</t>
+  </si>
+  <si>
+    <t>73 Giáp Bát – Hoàng Mai</t>
+  </si>
+  <si>
+    <t>01696 654 359</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +350,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -100,35 +372,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,180 +798,731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="14" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>164577654</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1995</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11">
+        <v>152122986</v>
+      </c>
+      <c r="F2" s="9">
+        <v>41395</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1996</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11">
+        <v>122236141</v>
+      </c>
+      <c r="F3" s="9">
+        <v>41562</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1992</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="11">
+        <v>163147719</v>
+      </c>
+      <c r="F4" s="9">
+        <v>39781</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1990</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11">
+        <v>162994496</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1990</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="11">
+        <v>163092832</v>
+      </c>
+      <c r="F6" s="9">
+        <v>39436</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1993</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="15">
+        <v>163262775</v>
+      </c>
+      <c r="F7" s="9">
+        <v>40538</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1995</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="11">
+        <v>187598655</v>
+      </c>
+      <c r="F8" s="9">
+        <v>41588</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1994</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="11">
+        <v>12723928</v>
+      </c>
+      <c r="F9" s="9">
+        <v>40668</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>1996</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1995</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="11">
+        <v>163285479</v>
+      </c>
+      <c r="F10" s="9">
+        <v>40696</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4">
-        <v>40634</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1993</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="11">
+        <v>174214665</v>
+      </c>
+      <c r="F11" s="9">
+        <v>40322</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>123456789</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1989</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="11">
+        <v>112372732</v>
+      </c>
+      <c r="F12" s="9">
+        <v>39068</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1986</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="11">
+        <v>13656956</v>
+      </c>
+      <c r="F13" s="9">
+        <v>41501</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1995</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="11">
+        <v>163357693</v>
+      </c>
+      <c r="F14" s="9">
+        <v>41683</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1991</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="11">
+        <v>163136687</v>
+      </c>
+      <c r="F15" s="9">
+        <v>39790</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1989</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="11">
+        <v>36089000387</v>
+      </c>
+      <c r="F16" s="9">
+        <v>42221</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1993</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="11">
+        <v>17200570</v>
+      </c>
+      <c r="F17" s="9">
+        <v>40800</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1993</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="11">
+        <v>151905620</v>
+      </c>
+      <c r="F18" s="9">
+        <v>39182</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1991</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="11">
+        <v>12753743</v>
+      </c>
+      <c r="F19" s="9">
+        <v>41152</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1994</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="12">
+        <v>163275993</v>
+      </c>
+      <c r="F20" s="6">
+        <v>40968</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1994</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="11">
+        <v>135653818</v>
+      </c>
+      <c r="F21" s="9">
+        <v>40344</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1993</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="11">
+        <v>17145960</v>
+      </c>
+      <c r="F22" s="9">
+        <v>40251</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1993</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="11">
+        <v>164496484</v>
+      </c>
+      <c r="F23" s="9">
+        <v>39588</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>1996</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="15">
+        <v>1987</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="11">
+        <v>151522168</v>
+      </c>
+      <c r="F24" s="9">
+        <v>40089</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1995</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="11">
+        <v>164543067</v>
+      </c>
+      <c r="F25" s="9">
+        <v>40303</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1994</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="11">
+        <v>142702814</v>
+      </c>
+      <c r="F26" s="9">
+        <v>42150</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1993</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="11">
+        <v>168502097</v>
+      </c>
+      <c r="F27" s="9">
+        <v>40559</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1994</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="11">
+        <v>163318925</v>
+      </c>
+      <c r="F28" s="9">
+        <v>40994</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4">
-        <v>40634</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>987654321</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
+    </row>
+    <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1994</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="11">
+        <v>163231742</v>
+      </c>
+      <c r="F29" s="9">
+        <v>40387</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1993</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1420730297</v>
+      </c>
+      <c r="F30" s="9">
+        <v>39981</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="11">
         <v>1995</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4">
-        <v>40634</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>111111111</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1995</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4">
-        <v>40634</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>999999999</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1996</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4">
-        <v>40634</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>555555555</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1998</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4">
-        <v>40634</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="C31" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="11">
+        <v>173799704</v>
+      </c>
+      <c r="F31" s="9">
+        <v>40558</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
   <si>
     <t>so_cmt</t>
   </si>
@@ -49,120 +49,15 @@
     <t>Ninh Bình</t>
   </si>
   <si>
-    <t>Nghệ An</t>
-  </si>
-  <si>
     <t>Hải Dương</t>
   </si>
   <si>
     <t>Thái Bình</t>
   </si>
   <si>
-    <t>Phạm Văn Dũng</t>
-  </si>
-  <si>
-    <t>2B/299/15 Hoàng Mai  - Hà Nội</t>
-  </si>
-  <si>
-    <t>0977 972 362</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Nhung</t>
-  </si>
-  <si>
-    <t>121 Kim Ngưu –Hai Bà Trưng</t>
-  </si>
-  <si>
-    <t>0969 264 651</t>
-  </si>
-  <si>
     <t>Bắc Giang</t>
   </si>
   <si>
-    <t>Dương Thị Thanh Nhật</t>
-  </si>
-  <si>
-    <t>10/138 Đường Giáp Bát</t>
-  </si>
-  <si>
-    <t>01649 611 932</t>
-  </si>
-  <si>
-    <t>Phạm Thị Hường</t>
-  </si>
-  <si>
-    <t>Số 1 Trần Quý Cáp – Đống Đa</t>
-  </si>
-  <si>
-    <t>01635 983 395</t>
-  </si>
-  <si>
-    <t>Trần Thị Thu Cúc</t>
-  </si>
-  <si>
-    <t>Số 75/66 Hồ Tùng Mậu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0979 297 157 </t>
-  </si>
-  <si>
-    <t>Phạm Thị Hoa Mai</t>
-  </si>
-  <si>
-    <t>0947 759 645</t>
-  </si>
-  <si>
-    <t>Trần Thị Vuông</t>
-  </si>
-  <si>
-    <t>139 Tam Trinh – Hai Bà Trưng</t>
-  </si>
-  <si>
-    <t>0984 373 091</t>
-  </si>
-  <si>
-    <t>Kiều Việt Sơn</t>
-  </si>
-  <si>
-    <t>KTX ĐH Dược – Hà Nội</t>
-  </si>
-  <si>
-    <t>01629 410 068</t>
-  </si>
-  <si>
-    <t>Ngô Thị Nhung</t>
-  </si>
-  <si>
-    <t>139 Tam Trinh – Hoàng Mai</t>
-  </si>
-  <si>
-    <t>0965 312 982</t>
-  </si>
-  <si>
-    <t>Vũ Hoàng Nguyên</t>
-  </si>
-  <si>
-    <t>01659 012 087</t>
-  </si>
-  <si>
-    <t>Hà Hồng Hương</t>
-  </si>
-  <si>
-    <t>Bùi Xương Trạch – Thanh Xuân</t>
-  </si>
-  <si>
-    <t>0968 266 389</t>
-  </si>
-  <si>
-    <t>Hà Tây</t>
-  </si>
-  <si>
-    <t>Bùi Thị Giang</t>
-  </si>
-  <si>
-    <t>0983 956 808</t>
-  </si>
-  <si>
     <t>Phạm Hương Giang</t>
   </si>
   <si>
@@ -329,6 +224,120 @@
   </si>
   <si>
     <t>01696 654 359</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Huy</t>
+  </si>
+  <si>
+    <t>Tạ Quang Bửu – Hà Nội</t>
+  </si>
+  <si>
+    <t>01699 899 813</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Hùng</t>
+  </si>
+  <si>
+    <t>55/349 Minh Khai</t>
+  </si>
+  <si>
+    <t>0906 298 704</t>
+  </si>
+  <si>
+    <t>Bùi Đức Hưng</t>
+  </si>
+  <si>
+    <t>Lạc Long Quân – Xuân Đỉnh</t>
+  </si>
+  <si>
+    <t>0967 703 890</t>
+  </si>
+  <si>
+    <t>Phú Thọ</t>
+  </si>
+  <si>
+    <t>Trần Thị Hoa</t>
+  </si>
+  <si>
+    <t>99/110/67 Định Công Hạ</t>
+  </si>
+  <si>
+    <t>01685 089 696</t>
+  </si>
+  <si>
+    <t>Ngô Thị Vân Anh</t>
+  </si>
+  <si>
+    <t>0984 233 475</t>
+  </si>
+  <si>
+    <t>Nguyễn Tùng Lâm</t>
+  </si>
+  <si>
+    <t>105/169 Hoàng Mai</t>
+  </si>
+  <si>
+    <t>01646 645 993</t>
+  </si>
+  <si>
+    <t>Vương Ngọc Hoàn</t>
+  </si>
+  <si>
+    <t>Tổ 3 Lĩnh Nam – Hoàng Mai</t>
+  </si>
+  <si>
+    <t>0916 162 833</t>
+  </si>
+  <si>
+    <t>Bùi Văn Hưng</t>
+  </si>
+  <si>
+    <t>Thôn Du Nghệ - Quốc Oai</t>
+  </si>
+  <si>
+    <t>01693 352 249</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>Chùa Láng</t>
+  </si>
+  <si>
+    <t>01659 149 731</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
+    <t>Nguyễn Lưu Ly</t>
+  </si>
+  <si>
+    <t>Dương Xá – Gia Lâm</t>
+  </si>
+  <si>
+    <t>01673 668 345</t>
+  </si>
+  <si>
+    <t>Sơn La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Chí Thiện </t>
+  </si>
+  <si>
+    <t>27/337 Định Công – Hoàng Mai</t>
+  </si>
+  <si>
+    <t>0978 844 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đinh Hoàng Đức </t>
+  </si>
+  <si>
+    <t>73 Bùi Ngọc Dương</t>
+  </si>
+  <si>
+    <t>0914 058 870</t>
   </si>
 </sst>
 </file>
@@ -801,7 +810,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,290 +849,290 @@
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B2" s="11">
-        <v>1995</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>15</v>
+        <v>1992</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E2" s="11">
-        <v>152122986</v>
-      </c>
-      <c r="F2" s="9">
-        <v>41395</v>
-      </c>
+        <v>163210438</v>
+      </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B3" s="11">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E3" s="11">
-        <v>122236141</v>
+        <v>13208321</v>
       </c>
       <c r="F3" s="9">
-        <v>41562</v>
+        <v>39981</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E4" s="11">
-        <v>163147719</v>
+        <v>132074708</v>
       </c>
       <c r="F4" s="9">
-        <v>39781</v>
+        <v>41958</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B5" s="11">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>26</v>
+        <v>81</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="E5" s="11">
-        <v>162994496</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>17169863</v>
+      </c>
+      <c r="F5" s="9">
+        <v>40347</v>
+      </c>
       <c r="G5" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B6" s="11">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="E6" s="11">
-        <v>163092832</v>
+        <v>174612566</v>
       </c>
       <c r="F6" s="9">
-        <v>39436</v>
+        <v>40994</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B7" s="11">
         <v>1993</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="15">
-        <v>163262775</v>
+        <v>87</v>
+      </c>
+      <c r="E7" s="11">
+        <v>122008752</v>
       </c>
       <c r="F7" s="9">
-        <v>40538</v>
+        <v>39650</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B8" s="11">
-        <v>1995</v>
+        <v>1983</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E8" s="11">
-        <v>187598655</v>
+        <v>13529451</v>
       </c>
       <c r="F8" s="9">
-        <v>41588</v>
+        <v>41013</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="A9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="12">
         <v>1994</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="11">
-        <v>12723928</v>
-      </c>
-      <c r="F9" s="9">
-        <v>40668</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="C9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="12">
+        <v>17189667</v>
+      </c>
+      <c r="F9" s="6">
+        <v>40390</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B10" s="11">
         <v>1995</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E10" s="11">
-        <v>163285479</v>
+        <v>145679095</v>
       </c>
       <c r="F10" s="9">
-        <v>40696</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>8</v>
+        <v>40635</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="B11" s="11">
         <v>1993</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="E11" s="11">
-        <v>174214665</v>
+        <v>50857335</v>
       </c>
       <c r="F11" s="9">
-        <v>40322</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>9</v>
+        <v>40452</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B12" s="11">
-        <v>1989</v>
+        <v>1995</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E12" s="11">
-        <v>112372732</v>
+        <v>163340670</v>
       </c>
       <c r="F12" s="9">
-        <v>39068</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>46</v>
+        <v>41194</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B13" s="11">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E13" s="11">
-        <v>13656956</v>
+        <v>163277561</v>
       </c>
       <c r="F13" s="9">
-        <v>41501</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>7</v>
+        <v>41758</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B14" s="11">
         <v>1995</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E14" s="11">
         <v>163357693</v>
@@ -1137,16 +1146,16 @@
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B15" s="11">
         <v>1991</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E15" s="11">
         <v>163136687</v>
@@ -1160,16 +1169,16 @@
     </row>
     <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B16" s="11">
         <v>1989</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E16" s="11">
         <v>36089000387</v>
@@ -1183,16 +1192,16 @@
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B17" s="11">
         <v>1993</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E17" s="11">
         <v>17200570</v>
@@ -1206,16 +1215,16 @@
     </row>
     <row r="18" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B18" s="11">
         <v>1993</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E18" s="11">
         <v>151905620</v>
@@ -1224,21 +1233,21 @@
         <v>39182</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B19" s="11">
         <v>1991</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E19" s="11">
         <v>12753743</v>
@@ -1252,16 +1261,16 @@
     </row>
     <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B20" s="12">
         <v>1994</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E20" s="12">
         <v>163275993</v>
@@ -1275,16 +1284,16 @@
     </row>
     <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B21" s="11">
         <v>1994</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E21" s="11">
         <v>135653818</v>
@@ -1293,21 +1302,21 @@
         <v>40344</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B22" s="11">
         <v>1993</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E22" s="11">
         <v>17145960</v>
@@ -1321,16 +1330,16 @@
     </row>
     <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B23" s="11">
         <v>1993</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="E23" s="11">
         <v>164496484</v>
@@ -1344,16 +1353,16 @@
     </row>
     <row r="24" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B24" s="15">
         <v>1987</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="E24" s="11">
         <v>151522168</v>
@@ -1362,21 +1371,21 @@
         <v>40089</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B25" s="11">
         <v>1995</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E25" s="11">
         <v>164543067</v>
@@ -1390,16 +1399,16 @@
     </row>
     <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B26" s="11">
         <v>1994</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="E26" s="11">
         <v>142702814</v>
@@ -1408,21 +1417,21 @@
         <v>42150</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B27" s="11">
         <v>1993</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E27" s="11">
         <v>168502097</v>
@@ -1431,21 +1440,21 @@
         <v>40559</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B28" s="11">
         <v>1994</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E28" s="11">
         <v>163318925</v>
@@ -1459,16 +1468,16 @@
     </row>
     <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B29" s="11">
         <v>1994</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="E29" s="11">
         <v>163231742</v>
@@ -1482,16 +1491,16 @@
     </row>
     <row r="30" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B30" s="11">
         <v>1993</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="E30" s="11">
         <v>1420730297</v>
@@ -1500,21 +1509,21 @@
         <v>39981</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B31" s="11">
         <v>1995</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E31" s="11">
         <v>173799704</v>
